--- a/results/nli-cv/combined/train/train_cv_results-AmazonHelp-outbound.xlsx
+++ b/results/nli-cv/combined/train/train_cv_results-AmazonHelp-outbound.xlsx
@@ -1060,7 +1060,7 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="E4">
         <v>0.9256511029488639</v>
@@ -1147,19 +1147,19 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>0.8099999999999999</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="E7">
-        <v>0.7311666639845144</v>
+        <v>0.7528409090909091</v>
       </c>
       <c r="F7">
-        <v>0.8620689655172413</v>
+        <v>0.8850574712643678</v>
       </c>
       <c r="G7">
-        <v>0.8778409090909092</v>
+        <v>0.8764204545454546</v>
       </c>
       <c r="H7">
-        <v>0.8333333333333334</v>
+        <v>0.84375</v>
       </c>
       <c r="I7">
         <v>32</v>
@@ -1179,16 +1179,16 @@
         <v>0.8699999999999999</v>
       </c>
       <c r="E8">
-        <v>0.8006594919249814</v>
+        <v>0.8258948315174716</v>
       </c>
       <c r="F8">
-        <v>0.9080459770114943</v>
+        <v>0.9195402298850575</v>
       </c>
       <c r="G8">
-        <v>0.8946022727272727</v>
+        <v>0.9036931818181818</v>
       </c>
       <c r="H8">
-        <v>0.870967741935484</v>
+        <v>0.8852459016393444</v>
       </c>
       <c r="I8">
         <v>32</v>
@@ -1292,19 +1292,19 @@
         <v>26</v>
       </c>
       <c r="D12">
-        <v>0.9299999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="E12">
-        <v>0.9009580891855622</v>
+        <v>0.9078779787187395</v>
       </c>
       <c r="F12">
         <v>0.9540229885057471</v>
       </c>
       <c r="G12">
-        <v>0.944034090909091</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="H12">
-        <v>0.9354838709677419</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="I12">
         <v>32</v>
@@ -1379,7 +1379,7 @@
         <v>29</v>
       </c>
       <c r="D15">
-        <v>0.9</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="E15">
         <v>0.9505681818181818</v>
@@ -1408,19 +1408,19 @@
         <v>30</v>
       </c>
       <c r="D16">
-        <v>0.8899999999999999</v>
+        <v>0.7899999999999999</v>
       </c>
       <c r="E16">
-        <v>0.8517045454545454</v>
+        <v>0.8661635148456444</v>
       </c>
       <c r="F16">
         <v>0.9310344827586207</v>
       </c>
       <c r="G16">
-        <v>0.9258522727272727</v>
+        <v>0.9454545454545454</v>
       </c>
       <c r="H16">
-        <v>0.90625</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="I16">
         <v>32</v>
@@ -1440,16 +1440,16 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="E17">
-        <v>0.7142863509037143</v>
+        <v>0.7569307784800088</v>
       </c>
       <c r="F17">
-        <v>0.8620689655172413</v>
+        <v>0.8850574712643678</v>
       </c>
       <c r="G17">
-        <v>0.8647727272727272</v>
+        <v>0.8829545454545454</v>
       </c>
       <c r="H17">
-        <v>0.823529411764706</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="I17">
         <v>32</v>
@@ -1466,19 +1466,19 @@
         <v>32</v>
       </c>
       <c r="D18">
-        <v>0.9199999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="E18">
-        <v>0.7715885154726594</v>
+        <v>0.8110821648112269</v>
       </c>
       <c r="F18">
-        <v>0.8735632183908046</v>
+        <v>0.9080459770114943</v>
       </c>
       <c r="G18">
-        <v>0.9</v>
+        <v>0.9142045454545454</v>
       </c>
       <c r="H18">
-        <v>0.8533333333333333</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="I18">
         <v>32</v>
@@ -1556,16 +1556,16 @@
         <v>0.95</v>
       </c>
       <c r="E21">
-        <v>0.9078779787187395</v>
+        <v>0.9297395250367623</v>
       </c>
       <c r="F21">
-        <v>0.9540229885057471</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="G21">
-        <v>0.9636363636363636</v>
+        <v>0.9727272727272727</v>
       </c>
       <c r="H21">
-        <v>0.9411764705882353</v>
+        <v>0.955223880597015</v>
       </c>
       <c r="I21">
         <v>32</v>
@@ -1585,16 +1585,16 @@
         <v>0.9810000000000001</v>
       </c>
       <c r="E22">
-        <v>0.9256511029488639</v>
+        <v>0.9511073878158526</v>
       </c>
       <c r="F22">
-        <v>0.9655172413793104</v>
+        <v>0.9770114942528736</v>
       </c>
       <c r="G22">
-        <v>0.959659090909091</v>
+        <v>0.96875</v>
       </c>
       <c r="H22">
-        <v>0.9523809523809523</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="I22">
         <v>32</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="D23">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="E23">
         <v>0.790273333114525</v>
@@ -1640,7 +1640,7 @@
         <v>38</v>
       </c>
       <c r="D24">
-        <v>0.9099999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="E24">
         <v>0.8110821648112269</v>
@@ -1698,7 +1698,7 @@
         <v>40</v>
       </c>
       <c r="D26">
-        <v>0.9</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="E26">
         <v>0.7918660287081339</v>
@@ -1756,7 +1756,7 @@
         <v>42</v>
       </c>
       <c r="D28">
-        <v>0.9800000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="E28">
         <v>0.8364536900535156</v>
@@ -1785,7 +1785,7 @@
         <v>43</v>
       </c>
       <c r="D29">
-        <v>0.85</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="E29">
         <v>0.6490655059715688</v>
@@ -1843,19 +1843,19 @@
         <v>45</v>
       </c>
       <c r="D31">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0.9511073878158526</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0.993421052631579</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="I31">
         <v>11</v>
@@ -1901,7 +1901,7 @@
         <v>47</v>
       </c>
       <c r="D33">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="E33">
         <v>0.5770339995032306</v>
@@ -1959,7 +1959,7 @@
         <v>49</v>
       </c>
       <c r="D35">
-        <v>0.7799999999999999</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="E35">
         <v>0.8364536900535156</v>
@@ -2046,19 +2046,19 @@
         <v>52</v>
       </c>
       <c r="D38">
-        <v>0.9399999999999998</v>
+        <v>0.97</v>
       </c>
       <c r="E38">
-        <v>0.5521647431429447</v>
+        <v>0.6503735321904554</v>
       </c>
       <c r="F38">
-        <v>0.9080459770114943</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="G38">
-        <v>0.7529904306220095</v>
+        <v>0.7661483253588517</v>
       </c>
       <c r="H38">
-        <v>0.6</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="I38">
         <v>11</v>
@@ -2075,7 +2075,7 @@
         <v>53</v>
       </c>
       <c r="D39">
-        <v>0.82</v>
+        <v>0.8299999999999998</v>
       </c>
       <c r="E39">
         <v>0.283440057833712</v>
@@ -2104,19 +2104,19 @@
         <v>54</v>
       </c>
       <c r="D40">
-        <v>0.9949999999999999</v>
+        <v>0.993</v>
       </c>
       <c r="E40">
-        <v>0.7153911599848798</v>
+        <v>0.6503735321904554</v>
       </c>
       <c r="F40">
-        <v>0.9425287356321839</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="G40">
-        <v>0.7727272727272727</v>
+        <v>0.7661483253588517</v>
       </c>
       <c r="H40">
-        <v>0.7058823529411764</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="I40">
         <v>11</v>
@@ -2162,19 +2162,19 @@
         <v>56</v>
       </c>
       <c r="D42">
-        <v>0.97</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0.9511073878158526</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0.993421052631579</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="I42">
         <v>11</v>
@@ -2191,19 +2191,19 @@
         <v>57</v>
       </c>
       <c r="D43">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0.9511073878158526</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0.993421052631579</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="I43">
         <v>11</v>
@@ -2223,16 +2223,16 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="E44">
-        <v>0.9472510404576867</v>
+        <v>0.895933014354067</v>
       </c>
       <c r="F44">
-        <v>0.9885057471264368</v>
+        <v>0.9770114942528736</v>
       </c>
       <c r="G44">
-        <v>0.9545454545454546</v>
+        <v>0.9479665071770335</v>
       </c>
       <c r="H44">
-        <v>0.9523809523809523</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="I44">
         <v>11</v>
@@ -2249,7 +2249,7 @@
         <v>59</v>
       </c>
       <c r="D45">
-        <v>0.9800000000000001</v>
+        <v>0.9810000000000001</v>
       </c>
       <c r="E45">
         <v>0.9472510404576867</v>
@@ -2307,19 +2307,19 @@
         <v>61</v>
       </c>
       <c r="D47">
-        <v>0.9399999999999998</v>
+        <v>0.7899999999999999</v>
       </c>
       <c r="E47">
-        <v>0.4716528871882704</v>
+        <v>0.4294646475995185</v>
       </c>
       <c r="F47">
-        <v>0.9310344827586207</v>
+        <v>0.8735632183908046</v>
       </c>
       <c r="G47">
-        <v>0.775609756097561</v>
+        <v>0.8390243902439025</v>
       </c>
       <c r="H47">
-        <v>0.5</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="I47">
         <v>5</v>
@@ -2336,7 +2336,7 @@
         <v>62</v>
       </c>
       <c r="D48">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="E48">
         <v>0.8347838711296821</v>
@@ -2365,7 +2365,7 @@
         <v>63</v>
       </c>
       <c r="D49">
-        <v>0.982</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="E49">
         <v>0.5647836868067738</v>
@@ -2452,7 +2452,7 @@
         <v>66</v>
       </c>
       <c r="D52">
-        <v>0.8799999999999999</v>
+        <v>0.8299999999999998</v>
       </c>
       <c r="E52">
         <v>0.4174070217477066</v>
@@ -2481,7 +2481,7 @@
         <v>67</v>
       </c>
       <c r="D53">
-        <v>0.7899999999999999</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="E53">
         <v>0.7759730319679051</v>
@@ -2510,7 +2510,7 @@
         <v>68</v>
       </c>
       <c r="D54">
-        <v>0.8299999999999998</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="E54">
         <v>0.9072875683637008</v>
@@ -2568,7 +2568,7 @@
         <v>70</v>
       </c>
       <c r="D56">
-        <v>0.85</v>
+        <v>0.8299999999999998</v>
       </c>
       <c r="E56">
         <v>0.2239960178839672</v>
@@ -2597,7 +2597,7 @@
         <v>71</v>
       </c>
       <c r="D57">
-        <v>0.8899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="E57">
         <v>0.5201723447980322</v>
@@ -2655,7 +2655,7 @@
         <v>73</v>
       </c>
       <c r="D59">
-        <v>0.8799999999999999</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="E59">
         <v>0.5201723447980322</v>
@@ -2713,19 +2713,19 @@
         <v>75</v>
       </c>
       <c r="D61">
-        <v>0.8099999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E61">
-        <v>0.3225911354182047</v>
+        <v>0.2900873952175645</v>
       </c>
       <c r="F61">
-        <v>0.9195402298850575</v>
+        <v>0.9080459770114943</v>
       </c>
       <c r="G61">
-        <v>0.6756097560975609</v>
+        <v>0.6695121951219511</v>
       </c>
       <c r="H61">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I61">
         <v>5</v>
@@ -2858,19 +2858,19 @@
         <v>80</v>
       </c>
       <c r="D66">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="E66">
-        <v>0.4716528871882704</v>
+        <v>0.4026180737632447</v>
       </c>
       <c r="F66">
-        <v>0.9310344827586207</v>
+        <v>0.9080459770114943</v>
       </c>
       <c r="G66">
-        <v>0.775609756097561</v>
+        <v>0.7634146341463415</v>
       </c>
       <c r="H66">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="I66">
         <v>5</v>
@@ -2890,16 +2890,16 @@
         <v>0.86</v>
       </c>
       <c r="E67">
-        <v>0.5201723447980322</v>
+        <v>0.5638654545821016</v>
       </c>
       <c r="F67">
-        <v>0.8735632183908046</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="G67">
-        <v>0.9329268292682926</v>
+        <v>0.9451219512195121</v>
       </c>
       <c r="H67">
-        <v>0.4761904761904762</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="I67">
         <v>5</v>
@@ -2916,19 +2916,19 @@
         <v>82</v>
       </c>
       <c r="D68">
-        <v>0.8299999999999998</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="E68">
-        <v>0.8347838711296821</v>
+        <v>0.7759730319679051</v>
       </c>
       <c r="F68">
-        <v>0.9770114942528736</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="G68">
-        <v>0.9878048780487805</v>
+        <v>0.9817073170731707</v>
       </c>
       <c r="H68">
-        <v>0.8333333333333333</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="I68">
         <v>5</v>
@@ -2945,19 +2945,19 @@
         <v>83</v>
       </c>
       <c r="D69">
-        <v>0.9879999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="E69">
-        <v>0.5647836868067738</v>
+        <v>0.5638654545821016</v>
       </c>
       <c r="F69">
-        <v>0.9310344827586207</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="G69">
-        <v>0.8695121951219512</v>
+        <v>0.9451219512195121</v>
       </c>
       <c r="H69">
-        <v>0.5714285714285714</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="I69">
         <v>5</v>
@@ -3003,19 +3003,19 @@
         <v>85</v>
       </c>
       <c r="D71">
-        <v>0.76</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="E71">
-        <v>0.1177135777680335</v>
+        <v>0.127416184990689</v>
       </c>
       <c r="F71">
-        <v>0.7816091954022989</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="G71">
-        <v>0.602439024390244</v>
+        <v>0.6085365853658536</v>
       </c>
       <c r="H71">
-        <v>0.1739130434782609</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I71">
         <v>5</v>
@@ -3032,7 +3032,7 @@
         <v>86</v>
       </c>
       <c r="D72">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="E72">
         <v>0.5303700275943344</v>
@@ -3148,7 +3148,7 @@
         <v>90</v>
       </c>
       <c r="D76">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E76">
         <v>0.5303700275943344</v>
@@ -3177,7 +3177,7 @@
         <v>91</v>
       </c>
       <c r="D77">
-        <v>0.9099999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="E77">
         <v>0.4174070217477066</v>
@@ -3264,7 +3264,7 @@
         <v>94</v>
       </c>
       <c r="D80">
-        <v>0.7899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="E80">
         <v>0.9503819266229829</v>
@@ -3293,7 +3293,7 @@
         <v>95</v>
       </c>
       <c r="D81">
-        <v>0.7799999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E81">
         <v>0.9750712829281618</v>
@@ -3351,7 +3351,7 @@
         <v>97</v>
       </c>
       <c r="D83">
-        <v>0.993</v>
+        <v>0.992</v>
       </c>
       <c r="E83">
         <v>0.9750712829281618</v>
@@ -3380,19 +3380,19 @@
         <v>98</v>
       </c>
       <c r="D84">
-        <v>0.9890000000000001</v>
+        <v>0.986</v>
       </c>
       <c r="E84">
-        <v>0.9750712829281618</v>
+        <v>0.9498847926267281</v>
       </c>
       <c r="F84">
-        <v>0.9885057471264368</v>
+        <v>0.9770114942528736</v>
       </c>
       <c r="G84">
-        <v>0.9838709677419355</v>
+        <v>0.9749423963133641</v>
       </c>
       <c r="H84">
-        <v>0.9836065573770492</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="I84">
         <v>31</v>
@@ -3409,7 +3409,7 @@
         <v>99</v>
       </c>
       <c r="D85">
-        <v>0.72</v>
+        <v>0.7899999999999999</v>
       </c>
       <c r="E85">
         <v>0.9750712829281618</v>
@@ -3438,19 +3438,19 @@
         <v>100</v>
       </c>
       <c r="D86">
-        <v>0.8400000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="E86">
-        <v>0.9750712829281618</v>
+        <v>0.9754234428478448</v>
       </c>
       <c r="F86">
         <v>0.9885057471264368</v>
       </c>
       <c r="G86">
-        <v>0.9838709677419355</v>
+        <v>0.9910714285714286</v>
       </c>
       <c r="H86">
-        <v>0.9836065573770492</v>
+        <v>0.9841269841269841</v>
       </c>
       <c r="I86">
         <v>31</v>
@@ -3641,7 +3641,7 @@
         <v>107</v>
       </c>
       <c r="D93">
-        <v>0.9299999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="E93">
         <v>0.9750712829281618</v>
@@ -3670,19 +3670,19 @@
         <v>108</v>
       </c>
       <c r="D94">
-        <v>0.8699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="E94">
-        <v>0.9754234428478448</v>
+        <v>0.9750712829281618</v>
       </c>
       <c r="F94">
         <v>0.9885057471264368</v>
       </c>
       <c r="G94">
-        <v>0.9910714285714286</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="H94">
-        <v>0.9841269841269841</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="I94">
         <v>31</v>
@@ -3699,7 +3699,7 @@
         <v>109</v>
       </c>
       <c r="D95">
-        <v>0.991</v>
+        <v>0.9869999999999999</v>
       </c>
       <c r="E95">
         <v>0.9754234428478448</v>
@@ -3728,7 +3728,7 @@
         <v>110</v>
       </c>
       <c r="D96">
-        <v>0.9949999999999999</v>
+        <v>0.993</v>
       </c>
       <c r="E96">
         <v>0.9754234428478448</v>
@@ -3760,16 +3760,16 @@
         <v>0.993</v>
       </c>
       <c r="E97">
-        <v>0.8305571897076579</v>
+        <v>0.8089996461103643</v>
       </c>
       <c r="F97">
-        <v>0.9195402298850575</v>
+        <v>0.9080459770114943</v>
       </c>
       <c r="G97">
-        <v>0.9230990783410138</v>
+        <v>0.9141705069124424</v>
       </c>
       <c r="H97">
-        <v>0.8923076923076922</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="I97">
         <v>31</v>
@@ -3786,19 +3786,19 @@
         <v>112</v>
       </c>
       <c r="D98">
-        <v>0.986</v>
+        <v>0.983</v>
       </c>
       <c r="E98">
-        <v>0.8089996461103643</v>
+        <v>0.7771598444244862</v>
       </c>
       <c r="F98">
-        <v>0.9080459770114943</v>
+        <v>0.8850574712643678</v>
       </c>
       <c r="G98">
-        <v>0.9141705069124424</v>
+        <v>0.9035138248847927</v>
       </c>
       <c r="H98">
-        <v>0.8787878787878788</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="I98">
         <v>31</v>
@@ -3815,19 +3815,19 @@
         <v>113</v>
       </c>
       <c r="D99">
-        <v>0.985</v>
+        <v>0.984</v>
       </c>
       <c r="E99">
-        <v>0.9754234428478448</v>
+        <v>0.9517584545693072</v>
       </c>
       <c r="F99">
-        <v>0.9885057471264368</v>
+        <v>0.9770114942528736</v>
       </c>
       <c r="G99">
-        <v>0.9910714285714286</v>
+        <v>0.9821428571428572</v>
       </c>
       <c r="H99">
-        <v>0.9841269841269841</v>
+        <v>0.96875</v>
       </c>
       <c r="I99">
         <v>31</v>
@@ -3844,19 +3844,19 @@
         <v>114</v>
       </c>
       <c r="D100">
-        <v>0.9800000000000001</v>
+        <v>0.982</v>
       </c>
       <c r="E100">
-        <v>0.9517584545693072</v>
+        <v>0.9498847926267281</v>
       </c>
       <c r="F100">
         <v>0.9770114942528736</v>
       </c>
       <c r="G100">
-        <v>0.9821428571428572</v>
+        <v>0.9749423963133641</v>
       </c>
       <c r="H100">
-        <v>0.96875</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="I100">
         <v>31</v>
@@ -3873,7 +3873,7 @@
         <v>115</v>
       </c>
       <c r="D101">
-        <v>0.96</v>
+        <v>0.9810000000000001</v>
       </c>
       <c r="E101">
         <v>0.9754234428478448</v>
@@ -3905,16 +3905,16 @@
         <v>0.76</v>
       </c>
       <c r="E102">
-        <v>0.4972889733336936</v>
+        <v>0.5090808117204016</v>
       </c>
       <c r="F102">
-        <v>0.7241379310344828</v>
+        <v>0.735632183908046</v>
       </c>
       <c r="G102">
-        <v>0.8356164383561644</v>
+        <v>0.8424657534246576</v>
       </c>
       <c r="H102">
-        <v>0.5384615384615384</v>
+        <v>0.5490196078431372</v>
       </c>
       <c r="I102">
         <v>14</v>
@@ -3931,19 +3931,19 @@
         <v>117</v>
       </c>
       <c r="D103">
-        <v>0.82</v>
+        <v>0.8299999999999998</v>
       </c>
       <c r="E103">
-        <v>0.3974417417787829</v>
+        <v>0.4295759048396732</v>
       </c>
       <c r="F103">
-        <v>0.7701149425287356</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="G103">
-        <v>0.7475538160469668</v>
+        <v>0.761252446183953</v>
       </c>
       <c r="H103">
-        <v>0.5</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="I103">
         <v>14</v>
@@ -3960,19 +3960,19 @@
         <v>118</v>
       </c>
       <c r="D104">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="E104">
-        <v>0.4941941198735051</v>
+        <v>0.5187966873027078</v>
       </c>
       <c r="F104">
-        <v>0.8505747126436781</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="G104">
-        <v>0.7666340508806262</v>
+        <v>0.7734833659491194</v>
       </c>
       <c r="H104">
-        <v>0.5806451612903226</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="I104">
         <v>14</v>
@@ -3989,19 +3989,19 @@
         <v>119</v>
       </c>
       <c r="D105">
-        <v>0.8899999999999999</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="E105">
-        <v>0.498039208132827</v>
+        <v>0.5012892157197298</v>
       </c>
       <c r="F105">
         <v>0.8850574712643678</v>
       </c>
       <c r="G105">
-        <v>0.6717221135029354</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="H105">
-        <v>0.5</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="I105">
         <v>14</v>
@@ -4018,7 +4018,7 @@
         <v>120</v>
       </c>
       <c r="D106">
-        <v>0.982</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="E106">
         <v>0.3745935924417844</v>
@@ -4047,19 +4047,19 @@
         <v>121</v>
       </c>
       <c r="D107">
-        <v>0.993</v>
+        <v>0.982</v>
       </c>
       <c r="E107">
-        <v>0.6267639098606749</v>
+        <v>0.5785099349008971</v>
       </c>
       <c r="F107">
-        <v>0.9080459770114943</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="G107">
-        <v>0.7720156555772995</v>
+        <v>0.8312133072407044</v>
       </c>
       <c r="H107">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="I107">
         <v>14</v>
@@ -4076,19 +4076,19 @@
         <v>122</v>
       </c>
       <c r="D108">
-        <v>0.9299999999999999</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="E108">
-        <v>0.5454027160139153</v>
+        <v>0.6214848238238696</v>
       </c>
       <c r="F108">
-        <v>0.8735632183908046</v>
+        <v>0.9080459770114943</v>
       </c>
       <c r="G108">
-        <v>0.7803326810176126</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H108">
-        <v>0.6206896551724138</v>
+        <v>0.6</v>
       </c>
       <c r="I108">
         <v>14</v>
@@ -4105,7 +4105,7 @@
         <v>123</v>
       </c>
       <c r="D109">
-        <v>0.8400000000000001</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="E109">
         <v>0.7746123835811276</v>
@@ -4192,7 +4192,7 @@
         <v>126</v>
       </c>
       <c r="D112">
-        <v>0.8799999999999999</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="E112">
         <v>0.3745935924417844</v>
@@ -4221,19 +4221,19 @@
         <v>127</v>
       </c>
       <c r="D113">
-        <v>0.983</v>
+        <v>0.986</v>
       </c>
       <c r="E113">
-        <v>0.4294646475995185</v>
+        <v>0.5012892157197298</v>
       </c>
       <c r="F113">
-        <v>0.8735632183908046</v>
+        <v>0.8850574712643678</v>
       </c>
       <c r="G113">
-        <v>0.6360078277886496</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="H113">
-        <v>0.4210526315789473</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="I113">
         <v>14</v>
@@ -4279,7 +4279,7 @@
         <v>129</v>
       </c>
       <c r="D115">
-        <v>0.983</v>
+        <v>0.984</v>
       </c>
       <c r="E115">
         <v>0.6214848238238696</v>
@@ -4366,19 +4366,19 @@
         <v>132</v>
       </c>
       <c r="D118">
-        <v>0.8299999999999998</v>
+        <v>0.85</v>
       </c>
       <c r="E118">
-        <v>0.3679330072504167</v>
+        <v>0.3703575607719961</v>
       </c>
       <c r="F118">
-        <v>0.5747126436781609</v>
+        <v>0.632183908045977</v>
       </c>
       <c r="G118">
-        <v>0.7465753424657534</v>
+        <v>0.7519569471624266</v>
       </c>
       <c r="H118">
-        <v>0.4307692307692308</v>
+        <v>0.4482758620689656</v>
       </c>
       <c r="I118">
         <v>14</v>
@@ -4424,19 +4424,19 @@
         <v>134</v>
       </c>
       <c r="D120">
-        <v>0.9960000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="E120">
-        <v>0.5743639921722113</v>
+        <v>0.6214848238238696</v>
       </c>
       <c r="F120">
-        <v>0.8850574712643678</v>
+        <v>0.9080459770114943</v>
       </c>
       <c r="G120">
-        <v>0.7871819960861057</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H120">
-        <v>0.6428571428571429</v>
+        <v>0.6</v>
       </c>
       <c r="I120">
         <v>14</v>
@@ -4482,19 +4482,19 @@
         <v>136</v>
       </c>
       <c r="D122">
-        <v>0.994</v>
+        <v>0.9970000000000001</v>
       </c>
       <c r="E122">
-        <v>0.7110223889396069</v>
+        <v>0.7266559936395105</v>
       </c>
       <c r="F122">
-        <v>0.9195402298850575</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="G122">
-        <v>0.8654598825831703</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="H122">
-        <v>0.7586206896551724</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="I122">
         <v>14</v>
@@ -4543,16 +4543,16 @@
         <v>0.77</v>
       </c>
       <c r="E124">
-        <v>0.4999285064030777</v>
+        <v>0.5403720350986858</v>
       </c>
       <c r="F124">
-        <v>0.9310344827586207</v>
+        <v>0.9425287356321839</v>
       </c>
       <c r="G124">
-        <v>0.8448795180722892</v>
+        <v>0.8509036144578312</v>
       </c>
       <c r="H124">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="I124">
         <v>4</v>
@@ -4627,7 +4627,7 @@
         <v>141</v>
       </c>
       <c r="D127">
-        <v>0.75</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="E127">
         <v>0.5900124413484907</v>
@@ -4656,19 +4656,19 @@
         <v>142</v>
       </c>
       <c r="D128">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="E128">
-        <v>0.3356720167235347</v>
+        <v>0.3386022194180606</v>
       </c>
       <c r="F128">
-        <v>0.8505747126436781</v>
+        <v>0.9195402298850575</v>
       </c>
       <c r="G128">
-        <v>0.802710843373494</v>
+        <v>0.7198795180722892</v>
       </c>
       <c r="H128">
-        <v>0.3157894736842106</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="I128">
         <v>4</v>
@@ -4743,19 +4743,19 @@
         <v>145</v>
       </c>
       <c r="D131">
-        <v>0.9299999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="E131">
-        <v>0.7379518072289156</v>
+        <v>0.6532148846830992</v>
       </c>
       <c r="F131">
-        <v>0.9770114942528736</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="G131">
-        <v>0.8689759036144578</v>
+        <v>0.8629518072289157</v>
       </c>
       <c r="H131">
-        <v>0.75</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="I131">
         <v>4</v>
@@ -4772,19 +4772,19 @@
         <v>146</v>
       </c>
       <c r="D132">
-        <v>0.8899999999999999</v>
+        <v>0.7899999999999999</v>
       </c>
       <c r="E132">
-        <v>0.6532148846830992</v>
+        <v>0.5403720350986858</v>
       </c>
       <c r="F132">
-        <v>0.9655172413793104</v>
+        <v>0.9425287356321839</v>
       </c>
       <c r="G132">
-        <v>0.8629518072289157</v>
+        <v>0.8509036144578312</v>
       </c>
       <c r="H132">
-        <v>0.6666666666666665</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="I132">
         <v>4</v>
@@ -4801,7 +4801,7 @@
         <v>147</v>
       </c>
       <c r="D133">
-        <v>0.8099999999999999</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="E133">
         <v>0.6532148846830992</v>
@@ -4830,7 +4830,7 @@
         <v>148</v>
       </c>
       <c r="D134">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="E134">
         <v>0.5900124413484907</v>
@@ -4859,19 +4859,19 @@
         <v>149</v>
       </c>
       <c r="D135">
-        <v>0.993</v>
+        <v>0.994</v>
       </c>
       <c r="E135">
-        <v>0.4999285064030777</v>
+        <v>0.5403720350986858</v>
       </c>
       <c r="F135">
-        <v>0.9310344827586207</v>
+        <v>0.9425287356321839</v>
       </c>
       <c r="G135">
-        <v>0.8448795180722892</v>
+        <v>0.8509036144578312</v>
       </c>
       <c r="H135">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="I135">
         <v>4</v>
@@ -4975,19 +4975,19 @@
         <v>153</v>
       </c>
       <c r="D139">
-        <v>0.8799999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="E139">
-        <v>0.5900124413484907</v>
+        <v>0.5403720350986858</v>
       </c>
       <c r="F139">
-        <v>0.9540229885057471</v>
+        <v>0.9425287356321839</v>
       </c>
       <c r="G139">
-        <v>0.8569277108433735</v>
+        <v>0.8509036144578312</v>
       </c>
       <c r="H139">
-        <v>0.6</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="I139">
         <v>4</v>
@@ -5004,7 +5004,7 @@
         <v>154</v>
       </c>
       <c r="D140">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="E140">
         <v>0.5403720350986858</v>
@@ -5033,7 +5033,7 @@
         <v>155</v>
       </c>
       <c r="D141">
-        <v>0.989</v>
+        <v>0.99</v>
       </c>
       <c r="E141">
         <v>0.5900124413484907</v>
@@ -5613,7 +5613,7 @@
         <v>175</v>
       </c>
       <c r="D161">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="E161">
         <v>0.8019207710721322</v>
@@ -5674,16 +5674,16 @@
         <v>0.9970000000000001</v>
       </c>
       <c r="E163">
-        <v>0.4752000568149294</v>
+        <v>0.4991805203955639</v>
       </c>
       <c r="F163">
-        <v>0.8045977011494253</v>
+        <v>0.8160919540229885</v>
       </c>
       <c r="G163">
-        <v>0.7339160839160839</v>
+        <v>0.7416083916083916</v>
       </c>
       <c r="H163">
-        <v>0.6046511627906977</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="I163">
         <v>22</v>
@@ -5700,19 +5700,19 @@
         <v>178</v>
       </c>
       <c r="D164">
-        <v>0.9949999999999999</v>
+        <v>0.9970000000000001</v>
       </c>
       <c r="E164">
-        <v>0.4861724348043977</v>
+        <v>0.4907474706644087</v>
       </c>
       <c r="F164">
-        <v>0.7816091954022989</v>
+        <v>0.8045977011494253</v>
       </c>
       <c r="G164">
-        <v>0.7636363636363637</v>
+        <v>0.7489510489510489</v>
       </c>
       <c r="H164">
-        <v>0.6274509803921569</v>
+        <v>0.6222222222222223</v>
       </c>
       <c r="I164">
         <v>22</v>
@@ -5787,19 +5787,19 @@
         <v>181</v>
       </c>
       <c r="D167">
-        <v>0.99</v>
+        <v>0.9869999999999999</v>
       </c>
       <c r="E167">
-        <v>0.4553779156352352</v>
+        <v>0.4473680896722571</v>
       </c>
       <c r="F167">
-        <v>0.7471264367816092</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="G167">
-        <v>0.7555944055944056</v>
+        <v>0.7552447552447552</v>
       </c>
       <c r="H167">
-        <v>0.6071428571428571</v>
+        <v>0.6</v>
       </c>
       <c r="I167">
         <v>22</v>
@@ -5874,19 +5874,19 @@
         <v>184</v>
       </c>
       <c r="D170">
-        <v>0.994</v>
+        <v>0.993</v>
       </c>
       <c r="E170">
-        <v>0.3916728345696351</v>
+        <v>0.3954077411362953</v>
       </c>
       <c r="F170">
-        <v>0.7471264367816092</v>
+        <v>0.735632183908046</v>
       </c>
       <c r="G170">
-        <v>0.7104895104895105</v>
+        <v>0.7178321678321677</v>
       </c>
       <c r="H170">
-        <v>0.5600000000000001</v>
+        <v>0.5660377358490567</v>
       </c>
       <c r="I170">
         <v>22</v>
@@ -5903,19 +5903,19 @@
         <v>185</v>
       </c>
       <c r="D171">
-        <v>0.9890000000000001</v>
+        <v>0.9949999999999999</v>
       </c>
       <c r="E171">
-        <v>0.4469722158973215</v>
+        <v>0.4553779156352352</v>
       </c>
       <c r="F171">
-        <v>0.6551724137931034</v>
+        <v>0.7471264367816092</v>
       </c>
       <c r="G171">
-        <v>0.7541958041958042</v>
+        <v>0.7555944055944056</v>
       </c>
       <c r="H171">
-        <v>0.5833333333333334</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="I171">
         <v>22</v>
@@ -5932,19 +5932,19 @@
         <v>186</v>
       </c>
       <c r="D172">
-        <v>0.993</v>
+        <v>0.994</v>
       </c>
       <c r="E172">
-        <v>0.6467502460655742</v>
+        <v>0.6706422597703227</v>
       </c>
       <c r="F172">
-        <v>0.8620689655172413</v>
+        <v>0.8735632183908046</v>
       </c>
       <c r="G172">
-        <v>0.8325174825174826</v>
+        <v>0.8402097902097903</v>
       </c>
       <c r="H172">
-        <v>0.7391304347826088</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="I172">
         <v>22</v>
@@ -5961,19 +5961,19 @@
         <v>187</v>
       </c>
       <c r="D173">
-        <v>0.9960000000000001</v>
+        <v>0.9970000000000001</v>
       </c>
       <c r="E173">
-        <v>0.6957775859471539</v>
+        <v>0.6958041958041958</v>
       </c>
       <c r="F173">
-        <v>0.8735632183908046</v>
+        <v>0.8850574712643678</v>
       </c>
       <c r="G173">
-        <v>0.8702797202797203</v>
+        <v>0.8479020979020979</v>
       </c>
       <c r="H173">
-        <v>0.7755102040816326</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="I173">
         <v>22</v>
@@ -5990,19 +5990,19 @@
         <v>188</v>
       </c>
       <c r="D174">
-        <v>0.992</v>
+        <v>0.99</v>
       </c>
       <c r="E174">
-        <v>0.3627076329654126</v>
+        <v>0.3702941859881245</v>
       </c>
       <c r="F174">
-        <v>0.7126436781609196</v>
+        <v>0.7011494252873564</v>
       </c>
       <c r="G174">
-        <v>0.7024475524475524</v>
+        <v>0.7097902097902098</v>
       </c>
       <c r="H174">
-        <v>0.5454545454545454</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="I174">
         <v>22</v>
@@ -6019,7 +6019,7 @@
         <v>189</v>
       </c>
       <c r="D175">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="E175">
         <v>0.8100979825050432</v>
@@ -6048,7 +6048,7 @@
         <v>190</v>
       </c>
       <c r="D176">
-        <v>0.9800000000000001</v>
+        <v>0.9810000000000001</v>
       </c>
       <c r="E176">
         <v>0.7805776431956497</v>
@@ -6109,16 +6109,16 @@
         <v>0.999</v>
       </c>
       <c r="E178">
-        <v>0.2956561979945413</v>
+        <v>0.3134168839149468</v>
       </c>
       <c r="F178">
-        <v>0.7126436781609196</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="G178">
-        <v>0.6573426573426573</v>
+        <v>0.665034965034965</v>
       </c>
       <c r="H178">
-        <v>0.4897959183673469</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="I178">
         <v>22</v>
@@ -6167,16 +6167,16 @@
         <v>0.998</v>
       </c>
       <c r="E180">
-        <v>0.6714950082218306</v>
+        <v>0.6906494679090134</v>
       </c>
       <c r="F180">
-        <v>0.8505747126436781</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="G180">
-        <v>0.8699300699300699</v>
+        <v>0.8776223776223776</v>
       </c>
       <c r="H180">
-        <v>0.7547169811320754</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="I180">
         <v>22</v>
@@ -6196,16 +6196,16 @@
         <v>0.998</v>
       </c>
       <c r="E181">
-        <v>0.3814030115677682</v>
+        <v>0.3934831061544509</v>
       </c>
       <c r="F181">
-        <v>0.6206896551724138</v>
+        <v>0.632183908045977</v>
       </c>
       <c r="G181">
-        <v>0.7160839160839161</v>
+        <v>0.7237762237762237</v>
       </c>
       <c r="H181">
-        <v>0.547945205479452</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I181">
         <v>22</v>
